--- a/mixed/Cutoff Payment Configuration HBS v171218 - One CutOff.xlsx
+++ b/mixed/Cutoff Payment Configuration HBS v171218 - One CutOff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gva-fs01.hindujabank.net\HomeUsers$\lbu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gva-fs01.hindujabank.net\HomeUsers$\FSP\My Documents\Analysis\Treasury\Miscellaneous\Cut Off\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,6 +39,546 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alexander Fenzke</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nicht SECB weil CHF
+von Avaloq entfernt
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+removed from Avaloq we do not have a correspondent bank in CYP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+removed from Avaloq we do not have a correspondent bank in EEK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Avaloq says 10:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexander Fenzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no correspondent bank</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="163">
   <si>
@@ -669,7 +1209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +1306,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +1360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1074,10 +1633,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,6 +1675,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,15 +1694,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1704,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1812,29 +2401,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BT277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+    <col min="2" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="11"/>
     <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1842,15 +2427,26 @@
     <col min="29" max="72" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
     <row r="2" spans="2:28" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:28" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="2:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>160</v>
       </c>
@@ -1938,10 +2534,10 @@
       <c r="L6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="37"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="33" t="s">
         <v>115</v>
       </c>
@@ -1994,10 +2590,10 @@
       <c r="L7" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="33" t="s">
         <v>87</v>
       </c>
@@ -2050,10 +2646,10 @@
       <c r="L8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="33" t="s">
         <v>116</v>
       </c>
@@ -2106,10 +2702,10 @@
       <c r="L9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="33" t="s">
         <v>88</v>
       </c>
@@ -2162,10 +2758,10 @@
       <c r="L10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="47"/>
       <c r="P10" s="33" t="s">
         <v>89</v>
       </c>
@@ -2183,58 +2779,58 @@
       <c r="AB10" s="32"/>
     </row>
     <row r="11" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="37">
         <f>D11-H11</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="37">
         <f>IF(D11&gt;J11,D11-J11,(D11+24)-J11)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40" t="s">
+      <c r="O11" s="47"/>
+      <c r="P11" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="41"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="49"/>
     </row>
     <row r="12" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
@@ -2272,79 +2868,79 @@
       <c r="L12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40" t="s">
+      <c r="O12" s="47"/>
+      <c r="P12" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="41"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="49"/>
     </row>
     <row r="13" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="37">
         <f>D13-H13</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="37">
         <f>IF(D13&gt;J13,D13-J13,(D13+24)-J13)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40" t="s">
+      <c r="O13" s="47"/>
+      <c r="P13" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="41"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="49"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
@@ -2399,39 +2995,39 @@
       <c r="AB14" s="11"/>
     </row>
     <row r="15" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="43">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="43">
         <v>0.20833333333333301</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>0.45833333333333393</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="43">
         <f>D15-J15</f>
         <v>0.62500000000000033</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="45" t="s">
         <v>60</v>
       </c>
       <c r="N15" s="11"/>
@@ -2555,37 +3151,37 @@
       <c r="AB17" s="11"/>
     </row>
     <row r="18" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="37">
         <f>D18-H18</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="37">
         <f>IF(D18&gt;J18,D18-J18,(D18+24)-J18)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N18" s="11"/>
@@ -2605,37 +3201,37 @@
       <c r="AB18" s="11"/>
     </row>
     <row r="19" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="37">
         <f>D19-H19</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="37">
         <f>IF(D19&gt;J19,D19-J19,(D19+24)-J19)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N19" s="11"/>
@@ -2707,37 +3303,37 @@
       <c r="AB20" s="11"/>
     </row>
     <row r="21" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25">
+      <c r="C21" s="36"/>
+      <c r="D21" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="37">
         <f>D21-H21</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="37">
         <f>IF(D21&gt;J21,D21-J21,(D21+24)-J21)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N21" s="11"/>
@@ -3017,37 +3613,37 @@
       <c r="AB26" s="11"/>
     </row>
     <row r="27" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25">
+      <c r="C27" s="36"/>
+      <c r="D27" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="37">
         <f>D27-H27</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="37">
         <f>IF(D27&gt;J27,D27-J27,(D27+24)-J27)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N27" s="11"/>
@@ -3067,37 +3663,37 @@
       <c r="AB27" s="11"/>
     </row>
     <row r="28" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25">
+      <c r="C28" s="36"/>
+      <c r="D28" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="37">
         <f>D28-H28</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="37">
         <f>IF(D28&gt;J28,D28-J28,(D28+24)-J28)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="L28" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N28" s="11"/>
@@ -3168,37 +3764,37 @@
       <c r="AB29" s="11"/>
     </row>
     <row r="30" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25">
+      <c r="C30" s="36"/>
+      <c r="D30" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="37">
         <f>D30-H30</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="37">
         <f>IF(D30&gt;J30,D30-J30,(D30+24)-J30)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N30" s="11"/>
@@ -3218,37 +3814,37 @@
       <c r="AB30" s="11"/>
     </row>
     <row r="31" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25">
+      <c r="C31" s="36"/>
+      <c r="D31" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="37">
         <f>D31-H31</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="37">
         <f>IF(D31&gt;J31,D31-J31,(D31+24)-J31)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L31" s="27" t="s">
+      <c r="L31" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N31" s="11"/>
@@ -3320,37 +3916,37 @@
       <c r="AB32" s="11"/>
     </row>
     <row r="33" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25">
+      <c r="C33" s="36"/>
+      <c r="D33" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="37">
         <f>D33-H33</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="37">
         <f>IF(D33&gt;J33,D33-J33,(D33+24)-J33)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="L33" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N33" s="11"/>
@@ -3370,37 +3966,37 @@
       <c r="AB33" s="11"/>
     </row>
     <row r="34" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25">
+      <c r="C34" s="36"/>
+      <c r="D34" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="37">
         <f>D34-H34</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="37">
         <f>IF(D34&gt;J34,D34-J34,(D34+24)-J34)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N34" s="11"/>
@@ -3420,37 +4016,37 @@
       <c r="AB34" s="11"/>
     </row>
     <row r="35" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25">
+      <c r="C35" s="36"/>
+      <c r="D35" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="37">
         <f>D35-H35</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="37">
         <f>IF(D35&gt;J35,D35-J35,(D35+24)-J35)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N35" s="11"/>
@@ -3522,37 +4118,37 @@
       <c r="AB36" s="11"/>
     </row>
     <row r="37" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25">
+      <c r="C37" s="36"/>
+      <c r="D37" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="37">
         <f>D37-H37</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="37">
         <f>IF(D37&gt;J37,D37-J37,(D37+24)-J37)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="L37" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N37" s="11"/>
@@ -3676,37 +4272,37 @@
       <c r="AB39" s="11"/>
     </row>
     <row r="40" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25">
+      <c r="C40" s="36"/>
+      <c r="D40" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="37">
         <f>D40-H40</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="37">
         <f t="shared" ref="K40:K45" si="3">IF(D40&gt;J40,D40-J40,(D40+24)-J40)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="L40" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N40" s="11"/>
@@ -3726,37 +4322,37 @@
       <c r="AB40" s="11"/>
     </row>
     <row r="41" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25">
+      <c r="C41" s="36"/>
+      <c r="D41" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="37">
         <f>D41-H41</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K41" s="37">
         <f t="shared" si="3"/>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L41" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N41" s="11"/>
@@ -3776,37 +4372,37 @@
       <c r="AB41" s="11"/>
     </row>
     <row r="42" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25">
+      <c r="C42" s="36"/>
+      <c r="D42" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="37">
         <f>D42-H42</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K42" s="37">
         <f t="shared" si="3"/>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="L42" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N42" s="11"/>
@@ -3878,37 +4474,37 @@
       <c r="AB43" s="11"/>
     </row>
     <row r="44" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25">
+      <c r="C44" s="36"/>
+      <c r="D44" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="37">
         <f>D44-H44</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K44" s="37">
         <f t="shared" si="3"/>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N44" s="11"/>
@@ -3928,37 +4524,37 @@
       <c r="AB44" s="11"/>
     </row>
     <row r="45" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25">
+      <c r="C45" s="36"/>
+      <c r="D45" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="37">
         <f>D45-H45</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45" s="37">
         <f t="shared" si="3"/>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N45" s="11"/>
@@ -4082,39 +4678,39 @@
       <c r="AB47" s="11"/>
     </row>
     <row r="48" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="43">
         <v>0.4375</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="43">
         <v>0.89583333333333304</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I48" s="43">
         <f>IF(D48&gt;H48,D48-H48,(D48+24)-H48)</f>
         <v>23.541666666666668</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="43">
         <v>0.72916666666666696</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K48" s="43">
         <f>IF(D48&gt;J48,D48-J48,(D48+24)-J48)</f>
         <v>23.708333333333332</v>
       </c>
-      <c r="L48" s="27" t="s">
+      <c r="L48" s="45" t="s">
         <v>60</v>
       </c>
       <c r="N48" s="11"/>
@@ -4290,37 +4886,37 @@
       <c r="AB51" s="11"/>
     </row>
     <row r="52" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25">
+      <c r="C52" s="36"/>
+      <c r="D52" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="37">
         <f>D52-H52</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K52" s="37">
         <f>IF(D52&gt;J52,D52-J52,(D52+24)-J52)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L52" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N52" s="11"/>
@@ -4444,37 +5040,37 @@
       <c r="AB54" s="11"/>
     </row>
     <row r="55" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25">
+      <c r="C55" s="36"/>
+      <c r="D55" s="37">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="37">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I55" s="37">
         <f>D55-H55</f>
         <v>0.49999999999999972</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K55" s="25">
+      <c r="K55" s="37">
         <f>IF(D55&gt;J55,D55-J55,(D55+24)-J55)</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="L55" s="39" t="s">
         <v>60</v>
       </c>
       <c r="N55" s="11"/>
@@ -4545,241 +5141,904 @@
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
     </row>
-    <row r="57" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="15"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="15"/>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="15"/>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="15"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="15"/>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="15"/>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="15"/>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="15"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="15"/>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="15"/>
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="15"/>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="15"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="15"/>
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="15"/>
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="15"/>
+      <c r="J71" s="15"/>
+    </row>
+    <row r="72" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="15"/>
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="15"/>
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="15"/>
+      <c r="J74" s="15"/>
+    </row>
+    <row r="75" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="15"/>
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="15"/>
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="15"/>
+      <c r="J77" s="15"/>
+    </row>
+    <row r="78" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="15"/>
+      <c r="J78" s="15"/>
+    </row>
+    <row r="79" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="15"/>
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="15"/>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="15"/>
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="15"/>
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="15"/>
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="15"/>
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="15"/>
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="15"/>
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="15"/>
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="15"/>
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="15"/>
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="15"/>
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="15"/>
+      <c r="J91" s="15"/>
+    </row>
+    <row r="92" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="15"/>
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="15"/>
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="15"/>
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="15"/>
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="15"/>
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="15"/>
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="15"/>
+      <c r="J98" s="15"/>
+    </row>
+    <row r="99" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="15"/>
+      <c r="J99" s="15"/>
+    </row>
+    <row r="100" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="15"/>
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="15"/>
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="15"/>
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="15"/>
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="15"/>
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="15"/>
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="15"/>
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="15"/>
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="15"/>
+      <c r="J108" s="15"/>
+    </row>
+    <row r="109" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="15"/>
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="15"/>
+      <c r="J110" s="15"/>
+    </row>
+    <row r="111" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="15"/>
+      <c r="J111" s="15"/>
+    </row>
+    <row r="112" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="15"/>
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="15"/>
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="15"/>
+      <c r="J114" s="15"/>
+    </row>
+    <row r="115" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="15"/>
+      <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="15"/>
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="15"/>
+      <c r="J117" s="15"/>
+    </row>
+    <row r="118" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="15"/>
+      <c r="J118" s="15"/>
+    </row>
+    <row r="119" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="15"/>
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="15"/>
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="15"/>
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="15"/>
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="15"/>
+      <c r="J123" s="15"/>
+    </row>
+    <row r="124" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="15"/>
+      <c r="J124" s="15"/>
+    </row>
+    <row r="125" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="15"/>
+      <c r="J125" s="15"/>
+    </row>
+    <row r="126" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="15"/>
+      <c r="J126" s="15"/>
+    </row>
+    <row r="127" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="15"/>
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="15"/>
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="15"/>
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="15"/>
+      <c r="J130" s="15"/>
+    </row>
+    <row r="131" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="15"/>
+      <c r="J131" s="15"/>
+    </row>
+    <row r="132" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="15"/>
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="15"/>
+      <c r="J133" s="15"/>
+    </row>
+    <row r="134" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="15"/>
+      <c r="J134" s="15"/>
+    </row>
+    <row r="135" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="15"/>
+      <c r="J135" s="15"/>
+    </row>
+    <row r="136" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="15"/>
+      <c r="J136" s="15"/>
+    </row>
+    <row r="137" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="15"/>
+      <c r="J137" s="15"/>
+    </row>
+    <row r="138" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H138" s="15"/>
+      <c r="J138" s="15"/>
+    </row>
+    <row r="139" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="15"/>
+      <c r="J139" s="15"/>
+    </row>
+    <row r="140" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="15"/>
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="15"/>
+      <c r="J141" s="15"/>
+    </row>
+    <row r="142" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="15"/>
+      <c r="J142" s="15"/>
+    </row>
+    <row r="143" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H143" s="15"/>
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H144" s="15"/>
+      <c r="J144" s="15"/>
+    </row>
+    <row r="145" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="15"/>
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="15"/>
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H147" s="15"/>
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H148" s="15"/>
+      <c r="J148" s="15"/>
+    </row>
+    <row r="149" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="15"/>
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H150" s="15"/>
+      <c r="J150" s="15"/>
+    </row>
+    <row r="151" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="15"/>
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="15"/>
+      <c r="J152" s="15"/>
+    </row>
+    <row r="153" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H153" s="15"/>
+      <c r="J153" s="15"/>
+    </row>
+    <row r="154" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="15"/>
+      <c r="J154" s="15"/>
+    </row>
+    <row r="155" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H155" s="15"/>
+      <c r="J155" s="15"/>
+    </row>
+    <row r="156" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H156" s="15"/>
+      <c r="J156" s="15"/>
+    </row>
+    <row r="157" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H157" s="15"/>
+      <c r="J157" s="15"/>
+    </row>
+    <row r="158" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H158" s="15"/>
+      <c r="J158" s="15"/>
+    </row>
+    <row r="159" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H159" s="15"/>
+      <c r="J159" s="15"/>
+    </row>
+    <row r="160" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H160" s="15"/>
+      <c r="J160" s="15"/>
+    </row>
+    <row r="161" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="15"/>
+      <c r="J161" s="15"/>
+    </row>
+    <row r="162" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H162" s="15"/>
+      <c r="J162" s="15"/>
+    </row>
+    <row r="163" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="15"/>
+      <c r="J163" s="15"/>
+    </row>
+    <row r="164" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="15"/>
+      <c r="J164" s="15"/>
+    </row>
+    <row r="165" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H165" s="15"/>
+      <c r="J165" s="15"/>
+    </row>
+    <row r="166" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H166" s="15"/>
+      <c r="J166" s="15"/>
+    </row>
+    <row r="167" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H167" s="15"/>
+      <c r="J167" s="15"/>
+    </row>
+    <row r="168" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="15"/>
+      <c r="J168" s="15"/>
+    </row>
+    <row r="169" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="15"/>
+      <c r="J169" s="15"/>
+    </row>
+    <row r="170" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="15"/>
+      <c r="J170" s="15"/>
+    </row>
+    <row r="171" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H171" s="15"/>
+      <c r="J171" s="15"/>
+    </row>
+    <row r="172" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H172" s="15"/>
+      <c r="J172" s="15"/>
+    </row>
+    <row r="173" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H173" s="15"/>
+      <c r="J173" s="15"/>
+    </row>
+    <row r="174" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H174" s="15"/>
+      <c r="J174" s="15"/>
+    </row>
+    <row r="175" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H175" s="15"/>
+      <c r="J175" s="15"/>
+    </row>
+    <row r="176" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="15"/>
+      <c r="J176" s="15"/>
+    </row>
+    <row r="177" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="15"/>
+      <c r="J177" s="15"/>
+    </row>
+    <row r="178" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="15"/>
+      <c r="J178" s="15"/>
+    </row>
+    <row r="179" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="15"/>
+      <c r="J179" s="15"/>
+    </row>
+    <row r="180" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H180" s="15"/>
+      <c r="J180" s="15"/>
+    </row>
+    <row r="181" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H181" s="15"/>
+      <c r="J181" s="15"/>
+    </row>
+    <row r="182" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="15"/>
+      <c r="J182" s="15"/>
+    </row>
+    <row r="183" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="15"/>
+      <c r="J183" s="15"/>
+    </row>
+    <row r="184" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="15"/>
+      <c r="J184" s="15"/>
+    </row>
+    <row r="185" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="15"/>
+      <c r="J185" s="15"/>
+    </row>
+    <row r="186" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H186" s="15"/>
+      <c r="J186" s="15"/>
+    </row>
+    <row r="187" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="15"/>
+      <c r="J187" s="15"/>
+    </row>
+    <row r="188" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="15"/>
+      <c r="J188" s="15"/>
+    </row>
+    <row r="189" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="15"/>
+      <c r="J189" s="15"/>
+    </row>
+    <row r="190" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="15"/>
+      <c r="J190" s="15"/>
+    </row>
+    <row r="191" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="15"/>
+      <c r="J191" s="15"/>
+    </row>
+    <row r="192" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="15"/>
+      <c r="J192" s="15"/>
+    </row>
+    <row r="193" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="15"/>
+      <c r="J193" s="15"/>
+    </row>
+    <row r="194" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="15"/>
+      <c r="J194" s="15"/>
+    </row>
+    <row r="195" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="15"/>
+      <c r="J195" s="15"/>
+    </row>
+    <row r="196" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H196" s="15"/>
+      <c r="J196" s="15"/>
+    </row>
+    <row r="197" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H197" s="15"/>
+      <c r="J197" s="15"/>
+    </row>
+    <row r="198" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H198" s="15"/>
+      <c r="J198" s="15"/>
+    </row>
+    <row r="199" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H199" s="15"/>
+      <c r="J199" s="15"/>
+    </row>
+    <row r="200" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H200" s="15"/>
+      <c r="J200" s="15"/>
+    </row>
+    <row r="201" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H201" s="15"/>
+      <c r="J201" s="15"/>
+    </row>
+    <row r="202" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H202" s="15"/>
+      <c r="J202" s="15"/>
+    </row>
+    <row r="203" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H203" s="15"/>
+      <c r="J203" s="15"/>
+    </row>
+    <row r="204" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H204" s="15"/>
+      <c r="J204" s="15"/>
+    </row>
+    <row r="205" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H205" s="15"/>
+      <c r="J205" s="15"/>
+    </row>
+    <row r="206" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H206" s="15"/>
+      <c r="J206" s="15"/>
+    </row>
+    <row r="207" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H207" s="15"/>
+      <c r="J207" s="15"/>
+    </row>
+    <row r="208" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H208" s="15"/>
+      <c r="J208" s="15"/>
+    </row>
+    <row r="209" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H209" s="15"/>
+      <c r="J209" s="15"/>
+    </row>
+    <row r="210" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H210" s="15"/>
+      <c r="J210" s="15"/>
+    </row>
+    <row r="211" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H211" s="15"/>
+      <c r="J211" s="15"/>
+    </row>
+    <row r="212" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H212" s="15"/>
+      <c r="J212" s="15"/>
+    </row>
+    <row r="213" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H213" s="15"/>
+      <c r="J213" s="15"/>
+    </row>
+    <row r="214" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H214" s="15"/>
+      <c r="J214" s="15"/>
+    </row>
+    <row r="215" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H215" s="15"/>
+      <c r="J215" s="15"/>
+    </row>
+    <row r="216" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H216" s="15"/>
+      <c r="J216" s="15"/>
+    </row>
+    <row r="217" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H217" s="15"/>
+      <c r="J217" s="15"/>
+    </row>
+    <row r="218" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H218" s="15"/>
+      <c r="J218" s="15"/>
+    </row>
+    <row r="219" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H219" s="15"/>
+      <c r="J219" s="15"/>
+    </row>
+    <row r="220" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H220" s="15"/>
+      <c r="J220" s="15"/>
+    </row>
+    <row r="221" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H221" s="15"/>
+      <c r="J221" s="15"/>
+    </row>
+    <row r="222" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H222" s="15"/>
+      <c r="J222" s="15"/>
+    </row>
+    <row r="223" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H223" s="15"/>
+      <c r="J223" s="15"/>
+    </row>
+    <row r="224" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H224" s="15"/>
+      <c r="J224" s="15"/>
+    </row>
+    <row r="225" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H225" s="15"/>
+      <c r="J225" s="15"/>
+    </row>
+    <row r="226" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H226" s="15"/>
+      <c r="J226" s="15"/>
+    </row>
+    <row r="227" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H227" s="15"/>
+      <c r="J227" s="15"/>
+    </row>
+    <row r="228" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H228" s="15"/>
+      <c r="J228" s="15"/>
+    </row>
+    <row r="229" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H229" s="15"/>
+      <c r="J229" s="15"/>
+    </row>
+    <row r="230" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H230" s="15"/>
+      <c r="J230" s="15"/>
+    </row>
+    <row r="231" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H231" s="15"/>
+      <c r="J231" s="15"/>
+    </row>
+    <row r="232" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H232" s="15"/>
+      <c r="J232" s="15"/>
+    </row>
+    <row r="233" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H233" s="15"/>
+      <c r="J233" s="15"/>
+    </row>
+    <row r="234" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H234" s="15"/>
+      <c r="J234" s="15"/>
+    </row>
+    <row r="235" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H235" s="15"/>
+      <c r="J235" s="15"/>
+    </row>
+    <row r="236" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H236" s="15"/>
+      <c r="J236" s="15"/>
+    </row>
+    <row r="237" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H237" s="15"/>
+      <c r="J237" s="15"/>
+    </row>
+    <row r="238" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H238" s="15"/>
+      <c r="J238" s="15"/>
+    </row>
+    <row r="239" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H239" s="15"/>
+      <c r="J239" s="15"/>
+    </row>
+    <row r="240" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H240" s="15"/>
+      <c r="J240" s="15"/>
+    </row>
+    <row r="241" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H241" s="15"/>
+      <c r="J241" s="15"/>
+    </row>
+    <row r="242" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H242" s="15"/>
+      <c r="J242" s="15"/>
+    </row>
+    <row r="243" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H243" s="15"/>
+      <c r="J243" s="15"/>
+    </row>
+    <row r="244" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H244" s="15"/>
+      <c r="J244" s="15"/>
+    </row>
+    <row r="245" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H245" s="15"/>
+      <c r="J245" s="15"/>
+    </row>
+    <row r="246" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H246" s="15"/>
+      <c r="J246" s="15"/>
+    </row>
+    <row r="247" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H247" s="15"/>
+      <c r="J247" s="15"/>
+    </row>
+    <row r="248" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H248" s="15"/>
+      <c r="J248" s="15"/>
+    </row>
+    <row r="249" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H249" s="15"/>
+      <c r="J249" s="15"/>
+    </row>
+    <row r="250" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H250" s="15"/>
+      <c r="J250" s="15"/>
+    </row>
+    <row r="251" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H251" s="15"/>
+      <c r="J251" s="15"/>
+    </row>
+    <row r="252" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H252" s="15"/>
+      <c r="J252" s="15"/>
+    </row>
+    <row r="253" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H253" s="15"/>
+      <c r="J253" s="15"/>
+    </row>
+    <row r="254" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H254" s="15"/>
+      <c r="J254" s="15"/>
+    </row>
+    <row r="255" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H255" s="15"/>
+      <c r="J255" s="15"/>
+    </row>
+    <row r="256" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H256" s="15"/>
+      <c r="J256" s="15"/>
+    </row>
+    <row r="257" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H257" s="15"/>
+      <c r="J257" s="15"/>
+    </row>
+    <row r="258" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H258" s="15"/>
+      <c r="J258" s="15"/>
+    </row>
+    <row r="259" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H259" s="15"/>
+      <c r="J259" s="15"/>
+    </row>
+    <row r="260" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H260" s="15"/>
+      <c r="J260" s="15"/>
+    </row>
+    <row r="261" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H261" s="15"/>
+      <c r="J261" s="15"/>
+    </row>
+    <row r="262" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H262" s="15"/>
+      <c r="J262" s="15"/>
+    </row>
+    <row r="263" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H263" s="15"/>
+      <c r="J263" s="15"/>
+    </row>
+    <row r="264" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H264" s="15"/>
+      <c r="J264" s="15"/>
+    </row>
+    <row r="265" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H265" s="15"/>
+      <c r="J265" s="15"/>
+    </row>
+    <row r="266" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H266" s="15"/>
+      <c r="J266" s="15"/>
+    </row>
+    <row r="267" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H267" s="15"/>
+      <c r="J267" s="15"/>
+    </row>
+    <row r="268" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H268" s="15"/>
+      <c r="J268" s="15"/>
+    </row>
+    <row r="269" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H269" s="15"/>
+      <c r="J269" s="15"/>
+    </row>
+    <row r="270" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H270" s="15"/>
+      <c r="J270" s="15"/>
+    </row>
+    <row r="271" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H271" s="15"/>
+      <c r="J271" s="15"/>
+    </row>
+    <row r="272" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H272" s="15"/>
+      <c r="J272" s="15"/>
+    </row>
+    <row r="273" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H273" s="15"/>
+      <c r="J273" s="15"/>
+    </row>
+    <row r="274" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H274" s="15"/>
+      <c r="J274" s="15"/>
+    </row>
+    <row r="275" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H275" s="15"/>
+      <c r="J275" s="15"/>
+    </row>
+    <row r="276" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H276" s="15"/>
+      <c r="J276" s="15"/>
+    </row>
+    <row r="277" spans="8:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H277" s="15"/>
+      <c r="J277" s="15"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="11">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P12:AB12"/>
     <mergeCell ref="P13:AB13"/>
     <mergeCell ref="P11:AB11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L56">
@@ -4795,6 +6054,7 @@
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4855,47 +6115,47 @@
     </row>
     <row r="7" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="2:6" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="2:6" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5177,8 +6437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5268,39 +6528,39 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
@@ -5309,21 +6569,21 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="11" t="s">
         <v>131</v>
       </c>
@@ -5332,10 +6592,10 @@
       <c r="B18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="11" t="s">
         <v>122</v>
       </c>
@@ -5346,21 +6606,21 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="15" t="s">
         <v>125</v>
       </c>
@@ -5369,15 +6629,15 @@
       <c r="B22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="15" t="s">
         <v>123</v>
       </c>
@@ -5386,10 +6646,10 @@
       <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="15" t="s">
         <v>124</v>
       </c>
@@ -5401,21 +6661,21 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="15" t="s">
         <v>126</v>
       </c>
@@ -5424,15 +6684,15 @@
       <c r="B27" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="15" t="s">
         <v>132</v>
       </c>
@@ -5441,10 +6701,10 @@
       <c r="B28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="59"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
@@ -5453,21 +6713,21 @@
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:8" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="15" t="s">
         <v>127</v>
       </c>
@@ -5476,15 +6736,15 @@
       <c r="B32" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="15" t="s">
         <v>129</v>
       </c>
@@ -5493,10 +6753,10 @@
       <c r="B33" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="15" t="s">
         <v>128</v>
       </c>
@@ -5736,6 +6996,16 @@
     <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E22:G22"/>
@@ -5748,16 +7018,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
